--- a/Data/Dialogs/dlgTruckInsurance.xlsx
+++ b/Data/Dialogs/dlgTruckInsurance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\PycharmProjects\OnTop\Data\Dialogs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D935190C-FFC5-4BAE-9C3D-C6CD9CD4EB94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80AF0323-1DE3-4227-8132-CD9D2AB47A52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1428" yWindow="744" windowWidth="34500" windowHeight="15768" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="35280" windowHeight="15720" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="33">
   <si>
     <t>Action</t>
   </si>
@@ -106,6 +106,24 @@
   </si>
   <si>
     <t>VIA_Pixel9Pro_API35</t>
+  </si>
+  <si>
+    <t>103_TruckInsuranceAutomobile_001_SmokeTest_FillPageVehicleData</t>
+  </si>
+  <si>
+    <t>//*[@id="insurance-form"]/div/section[1]</t>
+  </si>
+  <si>
+    <t>//*[@id="insurance-form"]/div/section[2]</t>
+  </si>
+  <si>
+    <t>//*[@id="insurance-form"]/div/section[3]</t>
+  </si>
+  <si>
+    <t>//*[@id="insurance-form"]/div/section[4]</t>
+  </si>
+  <si>
+    <t>//*[@id="insurance-form"]/div/section[5]</t>
   </si>
 </sst>
 </file>
@@ -129,7 +147,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -139,6 +157,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -155,10 +179,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -182,14 +207,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>266785</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>181737</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2369905</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>6477</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -212,7 +237,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="2926080"/>
+          <a:off x="0" y="4213860"/>
           <a:ext cx="14561905" cy="9142857"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -522,21 +547,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82737E07-8287-4E6B-9130-6C87B574EFB8}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="47" customWidth="1"/>
+    <col min="1" max="1" width="58.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.21875" customWidth="1"/>
-    <col min="3" max="3" width="22.44140625" customWidth="1"/>
-    <col min="4" max="4" width="30.88671875" customWidth="1"/>
-    <col min="5" max="5" width="19.77734375" customWidth="1"/>
-    <col min="6" max="6" width="32.44140625" customWidth="1"/>
-    <col min="7" max="7" width="20.5546875" customWidth="1"/>
+    <col min="3" max="7" width="35.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -546,6 +567,21 @@
       <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" t="s">
+        <v>32</v>
+      </c>
       <c r="H1" t="s">
         <v>0</v>
       </c>
@@ -557,6 +593,11 @@
       <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
       <c r="H2" t="s">
         <v>0</v>
       </c>
@@ -736,6 +777,11 @@
       </c>
       <c r="H14" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Dialogs/dlgTruckInsurance.xlsx
+++ b/Data/Dialogs/dlgTruckInsurance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\PycharmProjects\OnTop\Data\Dialogs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80AF0323-1DE3-4227-8132-CD9D2AB47A52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D45864BF-999D-40E9-983B-DCE313D57498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="35280" windowHeight="15720" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="39096" windowHeight="15720" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="45">
   <si>
     <t>Action</t>
   </si>
@@ -108,9 +108,6 @@
     <t>VIA_Pixel9Pro_API35</t>
   </si>
   <si>
-    <t>103_TruckInsuranceAutomobile_001_SmokeTest_FillPageVehicleData</t>
-  </si>
-  <si>
     <t>//*[@id="insurance-form"]/div/section[1]</t>
   </si>
   <si>
@@ -124,6 +121,45 @@
   </si>
   <si>
     <t>//*[@id="insurance-form"]/div/section[5]</t>
+  </si>
+  <si>
+    <t>103_TruckInsurance_001_SmokeTest_FillPageVehicleData</t>
+  </si>
+  <si>
+    <t>103_TruckInsurance_001_SmokeTest_FillPageInsurantData</t>
+  </si>
+  <si>
+    <t>103_TruckInsurance_001_SmokeTest_FillPageProductData</t>
+  </si>
+  <si>
+    <t>103_TruckInsurance_001_SmokeTest_FillPageSendQuote</t>
+  </si>
+  <si>
+    <t>103_TruckInsurance_001_SmokeTest_FillPage</t>
+  </si>
+  <si>
+    <t>Button Next from Page VehicleData</t>
+  </si>
+  <si>
+    <t>Button Next</t>
+  </si>
+  <si>
+    <t>Choose Silver</t>
+  </si>
+  <si>
+    <t>Choose Gold</t>
+  </si>
+  <si>
+    <t>Choose Platinum</t>
+  </si>
+  <si>
+    <t>Choose Ultimate</t>
+  </si>
+  <si>
+    <t>Send Quote - Button Main Page</t>
+  </si>
+  <si>
+    <t>Button Main Page</t>
   </si>
 </sst>
 </file>
@@ -206,15 +242,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>2369905</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>6477</xdr:rowOff>
+      <xdr:colOff>129625</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>44577</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -237,7 +273,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="4213860"/>
+          <a:off x="7620" y="4800600"/>
           <a:ext cx="14561905" cy="9142857"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -547,17 +583,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82737E07-8287-4E6B-9130-6C87B574EFB8}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+      <selection activeCell="A19" sqref="A19:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="58.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.21875" customWidth="1"/>
-    <col min="3" max="7" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="44.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="50" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="50" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -568,19 +607,19 @@
         <v>7</v>
       </c>
       <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
         <v>28</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>29</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>30</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>31</v>
-      </c>
-      <c r="G1" t="s">
-        <v>32</v>
       </c>
       <c r="H1" t="s">
         <v>0</v>
@@ -781,7 +820,142 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>32</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>36</v>
+      </c>
+      <c r="H16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" t="s">
+        <v>36</v>
+      </c>
+      <c r="H17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" t="s">
+        <v>36</v>
+      </c>
+      <c r="H18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>38</v>
+      </c>
+      <c r="H19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" t="s">
+        <v>39</v>
+      </c>
+      <c r="H20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" t="s">
+        <v>40</v>
+      </c>
+      <c r="H21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" t="s">
+        <v>41</v>
+      </c>
+      <c r="H22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" t="s">
+        <v>42</v>
+      </c>
+      <c r="H23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" t="s">
+        <v>44</v>
+      </c>
+      <c r="H24" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Dialogs/dlgTruckInsurance.xlsx
+++ b/Data/Dialogs/dlgTruckInsurance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\PycharmProjects\OnTop\Data\Dialogs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D45864BF-999D-40E9-983B-DCE313D57498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F348B5A-5C43-42DD-9E1B-16DB3DE6A577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="39096" windowHeight="15720" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
+    <workbookView xWindow="2172" yWindow="888" windowWidth="34512" windowHeight="14352" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -108,21 +108,6 @@
     <t>VIA_Pixel9Pro_API35</t>
   </si>
   <si>
-    <t>//*[@id="insurance-form"]/div/section[1]</t>
-  </si>
-  <si>
-    <t>//*[@id="insurance-form"]/div/section[2]</t>
-  </si>
-  <si>
-    <t>//*[@id="insurance-form"]/div/section[3]</t>
-  </si>
-  <si>
-    <t>//*[@id="insurance-form"]/div/section[4]</t>
-  </si>
-  <si>
-    <t>//*[@id="insurance-form"]/div/section[5]</t>
-  </si>
-  <si>
     <t>103_TruckInsurance_001_SmokeTest_FillPageVehicleData</t>
   </si>
   <si>
@@ -160,6 +145,21 @@
   </si>
   <si>
     <t>Button Main Page</t>
+  </si>
+  <si>
+    <t>//*[@id='insurance-form']/div/section[1]</t>
+  </si>
+  <si>
+    <t>//*[@id='insurance-form']/div/section[2]</t>
+  </si>
+  <si>
+    <t>//*[@id='insurance-form']/div/section[3]</t>
+  </si>
+  <si>
+    <t>//*[@id='insurance-form']/div/section[4]</t>
+  </si>
+  <si>
+    <t>//*[@id='insurance-form']/div/section[5]</t>
   </si>
 </sst>
 </file>
@@ -586,7 +586,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD24"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -607,19 +607,19 @@
         <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D1" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="E1" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="F1" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G1" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H1" t="s">
         <v>0</v>
@@ -820,13 +820,13 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s">
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H15" t="s">
         <v>4</v>
@@ -834,13 +834,13 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s">
         <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H16" t="s">
         <v>4</v>
@@ -848,13 +848,13 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s">
         <v>5</v>
       </c>
       <c r="E17" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H17" t="s">
         <v>4</v>
@@ -862,13 +862,13 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s">
         <v>5</v>
       </c>
       <c r="G18" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H18" t="s">
         <v>4</v>
@@ -876,13 +876,13 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
         <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H19" t="s">
         <v>4</v>
@@ -890,13 +890,13 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s">
         <v>5</v>
       </c>
       <c r="F20" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H20" t="s">
         <v>4</v>
@@ -904,13 +904,13 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B21" t="s">
         <v>5</v>
       </c>
       <c r="F21" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H21" t="s">
         <v>4</v>
@@ -918,13 +918,13 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B22" t="s">
         <v>5</v>
       </c>
       <c r="F22" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H22" t="s">
         <v>4</v>
@@ -932,13 +932,13 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B23" t="s">
         <v>5</v>
       </c>
       <c r="F23" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H23" t="s">
         <v>4</v>
@@ -946,13 +946,13 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B24" t="s">
         <v>5</v>
       </c>
       <c r="G24" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H24" t="s">
         <v>4</v>

--- a/Data/Dialogs/dlgTruckInsurance.xlsx
+++ b/Data/Dialogs/dlgTruckInsurance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\PycharmProjects\OnTop\Data\Dialogs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F348B5A-5C43-42DD-9E1B-16DB3DE6A577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ACF3B57-96C3-4BA1-B08B-3BA9CB458C91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2172" yWindow="888" windowWidth="34512" windowHeight="14352" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
+    <workbookView xWindow="1992" yWindow="372" windowWidth="36948" windowHeight="15672" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,14 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="34">
   <si>
     <t>Action</t>
   </si>
   <si>
-    <t>Check defaults</t>
-  </si>
-  <si>
     <t>Modus</t>
   </si>
   <si>
@@ -45,9 +42,6 @@
     <t>&lt;SET&gt;</t>
   </si>
   <si>
-    <t>&lt;SELECT&gt;</t>
-  </si>
-  <si>
     <t>Web</t>
   </si>
   <si>
@@ -72,36 +66,6 @@
     <t>pagSendQuote</t>
   </si>
   <si>
-    <t>Auswahl Page Vehicle Data</t>
-  </si>
-  <si>
-    <t>Auswahl Page Insurant Data</t>
-  </si>
-  <si>
-    <t>Auswahl Page Product Data</t>
-  </si>
-  <si>
-    <t>Auswahl Page Price Option</t>
-  </si>
-  <si>
-    <t>Auswahl Page Send Quote</t>
-  </si>
-  <si>
-    <t>Check defaults Page Vehicle Data</t>
-  </si>
-  <si>
-    <t>Check defaults Page Insurant Data</t>
-  </si>
-  <si>
-    <t>Check defaults Page Product Data</t>
-  </si>
-  <si>
-    <t>Check defaults Page Price Option</t>
-  </si>
-  <si>
-    <t>Check defaults Page Send Quote</t>
-  </si>
-  <si>
     <t>VIA_Chromium</t>
   </si>
   <si>
@@ -123,30 +87,6 @@
     <t>103_TruckInsurance_001_SmokeTest_FillPage</t>
   </si>
   <si>
-    <t>Button Next from Page VehicleData</t>
-  </si>
-  <si>
-    <t>Button Next</t>
-  </si>
-  <si>
-    <t>Choose Silver</t>
-  </si>
-  <si>
-    <t>Choose Gold</t>
-  </si>
-  <si>
-    <t>Choose Platinum</t>
-  </si>
-  <si>
-    <t>Choose Ultimate</t>
-  </si>
-  <si>
-    <t>Send Quote - Button Main Page</t>
-  </si>
-  <si>
-    <t>Button Main Page</t>
-  </si>
-  <si>
     <t>//*[@id='insurance-form']/div/section[1]</t>
   </si>
   <si>
@@ -160,6 +100,33 @@
   </si>
   <si>
     <t>//*[@id='insurance-form']/div/section[5]</t>
+  </si>
+  <si>
+    <t>Vehicle Page check for open mandatory fields</t>
+  </si>
+  <si>
+    <t>Vehicle Page check for hints regarding mandatory fields</t>
+  </si>
+  <si>
+    <t>Vehicle Page check error hint list value ranges</t>
+  </si>
+  <si>
+    <t>Vehicle Page check error hint manufacturing date in the future</t>
+  </si>
+  <si>
+    <t>103_TruckInsurance_002_VehicleData_001_MandatoryFields_FillMake</t>
+  </si>
+  <si>
+    <t>103_TruckInsurance_002_VehicleData_001_MandatoryFields_CheckFilledMake</t>
+  </si>
+  <si>
+    <t>103_TruckInsurance_002_VehicleData_002_EnterNumericValuesBelowRange</t>
+  </si>
+  <si>
+    <t>103_TruckInsurance_002_VehicleData_002_EnterNumericValuesAboveRange</t>
+  </si>
+  <si>
+    <t>103_TruckInsurance_002_VehicleData_002_ManufacturingDateInTheFuture</t>
   </si>
 </sst>
 </file>
@@ -242,15 +209,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>129625</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>44577</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>891625</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>21717</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -273,7 +240,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7620" y="4800600"/>
+          <a:off x="60960" y="3131820"/>
           <a:ext cx="14561905" cy="9142857"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -583,17 +550,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82737E07-8287-4E6B-9130-6C87B574EFB8}">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="58.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="71.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.21875" customWidth="1"/>
-    <col min="3" max="4" width="44.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="71.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="50" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="35.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="50" bestFit="1" customWidth="1"/>
@@ -601,25 +569,25 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="E1" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="F1" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="G1" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="H1" t="s">
         <v>0</v>
@@ -627,10 +595,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -643,25 +611,25 @@
     </row>
     <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>0</v>
@@ -669,167 +637,170 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
       </c>
       <c r="H4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
       </c>
       <c r="H5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
       </c>
       <c r="H6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="G7" t="s">
+        <v>19</v>
       </c>
       <c r="H7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" t="s">
-        <v>6</v>
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
       </c>
       <c r="H8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
       </c>
       <c r="H9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="H10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
       </c>
       <c r="H11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
       </c>
       <c r="H12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>3</v>
-      </c>
-      <c r="F13" t="s">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
       </c>
       <c r="H13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B14" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" t="s">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>32</v>
       </c>
       <c r="H14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -837,125 +808,13 @@
         <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" t="s">
-        <v>31</v>
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>28</v>
       </c>
       <c r="H16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" t="s">
-        <v>31</v>
-      </c>
-      <c r="H17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" t="s">
-        <v>5</v>
-      </c>
-      <c r="G18" t="s">
-        <v>31</v>
-      </c>
-      <c r="H18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" t="s">
-        <v>33</v>
-      </c>
-      <c r="H19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20" t="s">
-        <v>34</v>
-      </c>
-      <c r="H20" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" t="s">
-        <v>5</v>
-      </c>
-      <c r="F21" t="s">
-        <v>35</v>
-      </c>
-      <c r="H21" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" t="s">
-        <v>5</v>
-      </c>
-      <c r="F22" t="s">
-        <v>36</v>
-      </c>
-      <c r="H22" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>37</v>
-      </c>
-      <c r="B23" t="s">
-        <v>5</v>
-      </c>
-      <c r="F23" t="s">
-        <v>37</v>
-      </c>
-      <c r="H23" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24" t="s">
-        <v>5</v>
-      </c>
-      <c r="G24" t="s">
-        <v>39</v>
-      </c>
-      <c r="H24" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Dialogs/dlgTruckInsurance.xlsx
+++ b/Data/Dialogs/dlgTruckInsurance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\PycharmProjects\OnTop\Data\Dialogs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ACF3B57-96C3-4BA1-B08B-3BA9CB458C91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C23B79B-96CA-41ED-A415-475930849818}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1992" yWindow="372" windowWidth="36948" windowHeight="15672" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
+    <workbookView xWindow="420" yWindow="1752" windowWidth="39612" windowHeight="13668" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="52">
   <si>
     <t>Action</t>
   </si>
@@ -127,6 +127,60 @@
   </si>
   <si>
     <t>103_TruckInsurance_002_VehicleData_002_ManufacturingDateInTheFuture</t>
+  </si>
+  <si>
+    <t>Insurant Data Page check for open mandatory fields</t>
+  </si>
+  <si>
+    <t>103_TruckInsurance_003_InsurantData_001_MandatoryFields_FillFirstName</t>
+  </si>
+  <si>
+    <t>103_TruckInsurance_003_InsurantData_001_MandatoryFields_CheckFilledFirstName</t>
+  </si>
+  <si>
+    <t>103_TruckInsurance_003_InsurantData_002_EnterValuesInWrongFormat</t>
+  </si>
+  <si>
+    <t>103_TruckInsurance_003_InsurantData_002_EnterValuesInWrongFormat Part 2</t>
+  </si>
+  <si>
+    <t>Insurant Data Page check for hints regarding mandatory fields</t>
+  </si>
+  <si>
+    <t>Insurant Data Page check error hint formatting</t>
+  </si>
+  <si>
+    <t>Insurant Data Page check error hint formatting Part 2</t>
+  </si>
+  <si>
+    <t>Check for open mandatory fields</t>
+  </si>
+  <si>
+    <t>Check for hints regarding mandatory fields</t>
+  </si>
+  <si>
+    <t>Enter values in wrong format</t>
+  </si>
+  <si>
+    <t>Check error hint formatting</t>
+  </si>
+  <si>
+    <t>Enter values in wrong format part 2</t>
+  </si>
+  <si>
+    <t>Check error hint formatting Part 2</t>
+  </si>
+  <si>
+    <t>MandatoryFields_FillFirstName</t>
+  </si>
+  <si>
+    <t>MandatoryFields_CheckFilledFirstName</t>
+  </si>
+  <si>
+    <t>103_TruckInsurance_003_InsurantData_003_ListContents</t>
+  </si>
+  <si>
+    <t>List content</t>
   </si>
 </sst>
 </file>
@@ -209,15 +263,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>891625</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>21717</xdr:rowOff>
+      <xdr:colOff>1348825</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>29337</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -240,7 +294,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="60960" y="3131820"/>
+          <a:off x="106680" y="5516880"/>
           <a:ext cx="14561905" cy="9142857"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -550,10 +604,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82737E07-8287-4E6B-9130-6C87B574EFB8}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -561,10 +615,9 @@
     <col min="1" max="1" width="71.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.21875" customWidth="1"/>
     <col min="3" max="3" width="71.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="44.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="50" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="38.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="35.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="50" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -817,6 +870,132 @@
         <v>3</v>
       </c>
     </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>42</v>
+      </c>
+      <c r="H17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" t="s">
+        <v>48</v>
+      </c>
+      <c r="H18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>49</v>
+      </c>
+      <c r="H19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" t="s">
+        <v>43</v>
+      </c>
+      <c r="H20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
+        <v>44</v>
+      </c>
+      <c r="H21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" t="s">
+        <v>47</v>
+      </c>
+      <c r="H24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" t="s">
+        <v>51</v>
+      </c>
+      <c r="H25" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
